--- a/курсач 2 возвращение/Подсчеты растояний.xlsx
+++ b/курсач 2 возвращение/Подсчеты растояний.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morim\Desktop\Для пугу\курсач 2 возвращение\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A9502-7EC6-4F44-B20F-C276D0C1ABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA862D7-BA36-41C0-8624-998A121C5C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="S10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,10 +2047,17 @@
         <v>48.800000000000011</v>
       </c>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2">
+        <f>1.4+0.7+0.2+0.3+3+0.3+2+0.2+0.2</f>
+        <v>8.2999999999999989</v>
+      </c>
       <c r="AC11" s="1">
         <f>1.4+0.7+0.2+0.3+3+0.3+2+0.2+0.2+2682+0.2+7.3+2+0.3+3+0.3+0.7+0.3+2</f>
         <v>2706.4000000000005</v>
+      </c>
+      <c r="AD11">
+        <f>0.2+7.3+2+0.3+3+0.3+0.7+0.3+2</f>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
